--- a/biology/Microbiologie/Cymbella/Cymbella.xlsx
+++ b/biology/Microbiologie/Cymbella/Cymbella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cymbella est un genre de la famille des Cymbellaceae, algues diatomées du phylum Bacillariophyta.
 On y distingue près de 240 espèces. 
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de genre Cymbella, est composé du préfixe "cymb-", « creux, coupe ; nacelle » et du suffixe "-ella", petite, littéralement « petite coupe » ou « petite nacelle », en référence à la forme de la diatomée.
 </t>
@@ -543,10 +557,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Cymbella a subi un certain nombre de révisions depuis la fin des années 1980. Ce vaste complexe[1],[2], a été progressivement remplacé par plusieurs genres mieux circonscrits. Certains sont des résurrections de genres anciens, par exemple Encyonema (Kützing), tandis que d'autres sont nouveaux, par exemple Reimeria (Kociolek &amp; Stoermer, 1987). 
-Plus récemment, Krammer a distingué les genres  Afrocymbella,  Cymbellopsis, Cymbopleura, Delicata, Encyonopsis, Gomphocymbella, Gomphocymbellopsis et Navicymbula[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Cymbella a subi un certain nombre de révisions depuis la fin des années 1980. Ce vaste complexe a été progressivement remplacé par plusieurs genres mieux circonscrits. Certains sont des résurrections de genres anciens, par exemple Encyonema (Kützing), tandis que d'autres sont nouveaux, par exemple Reimeria (Kociolek &amp; Stoermer, 1987). 
+Plus récemment, Krammer a distingué les genres  Afrocymbella,  Cymbellopsis, Cymbopleura, Delicata, Encyonopsis, Gomphocymbella, Gomphocymbellopsis et Navicymbula.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La longueur de cellule va de 10 à 220 micromètres.
 </t>
@@ -606,9 +624,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (19 févr. 2012)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (19 févr. 2012) :
 Cymbella abbottii Cholnoky &amp; Claus
 Cymbella aculeata Lauby (Sans vérification)
 Cymbella acuta (Lyngbye) C.Agardh (Sans vérification)
@@ -1191,7 +1211,7 @@
 Cymbella yabe Skvortzov (Sans vérification)
 Cymbella yarrensis (A.Schmidt) Cleve (Sans vérification)
 Cymbella zambesiana Krammer
-Selon NCBI  (19 févr. 2012)[5] :
+Selon NCBI  (19 févr. 2012) :
 Cymbella aculeata
 Cymbella acuta
 Cymbella acutea
@@ -1292,7 +1312,7 @@
 Cymbella unipunctata
 Cymbella ventricosa
 Cymbella zebra
-Selon World Register of Marine Species                               (19 févr. 2012)[6] :
+Selon World Register of Marine Species                               (19 févr. 2012) :
 Cymbella acutiuscula Cleve, 1894
 Cymbella aequalis W. Sm. ex Grev. 1855
 Cymbella affinis Kützing, 1844
